--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H2">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N2">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O2">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P2">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q2">
-        <v>449.0993073186038</v>
+        <v>99.43484762824299</v>
       </c>
       <c r="R2">
-        <v>4041.893765867434</v>
+        <v>894.9136286541869</v>
       </c>
       <c r="S2">
-        <v>0.1473192269165916</v>
+        <v>0.1052660402050606</v>
       </c>
       <c r="T2">
-        <v>0.1473192269165916</v>
+        <v>0.1052660402050606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H3">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N3">
         <v>0.204412</v>
       </c>
       <c r="O3">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P3">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q3">
-        <v>4.959942414018223</v>
+        <v>2.480287534579111</v>
       </c>
       <c r="R3">
-        <v>44.63948172616401</v>
+        <v>22.322587811212</v>
       </c>
       <c r="S3">
-        <v>0.001627022954781808</v>
+        <v>0.002625739904698728</v>
       </c>
       <c r="T3">
-        <v>0.001627022954781807</v>
+        <v>0.002625739904698729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H4">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N4">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q4">
-        <v>408.2761850173346</v>
+        <v>77.31776942494621</v>
       </c>
       <c r="R4">
-        <v>3674.485665156011</v>
+        <v>695.8599248245159</v>
       </c>
       <c r="S4">
-        <v>0.1339279107427772</v>
+        <v>0.08185194244256326</v>
       </c>
       <c r="T4">
-        <v>0.1339279107427772</v>
+        <v>0.08185194244256327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N5">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O5">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P5">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q5">
-        <v>722.8823605621008</v>
+        <v>320.065201207922</v>
       </c>
       <c r="R5">
-        <v>6505.941245058906</v>
+        <v>2880.586810871298</v>
       </c>
       <c r="S5">
-        <v>0.2371290019249558</v>
+        <v>0.338834896841781</v>
       </c>
       <c r="T5">
-        <v>0.2371290019249558</v>
+        <v>0.3388348968417811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,16 +800,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N6">
         <v>0.204412</v>
       </c>
       <c r="O6">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P6">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q6">
         <v>7.983657115627556</v>
@@ -818,10 +818,10 @@
         <v>71.852914040648</v>
       </c>
       <c r="S6">
-        <v>0.002618900040758705</v>
+        <v>0.008451845514553422</v>
       </c>
       <c r="T6">
-        <v>0.002618900040758704</v>
+        <v>0.008451845514553422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N7">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q7">
-        <v>657.1723616069668</v>
+        <v>248.8737904086071</v>
       </c>
       <c r="R7">
-        <v>5914.551254462702</v>
+        <v>2239.864113677464</v>
       </c>
       <c r="S7">
-        <v>0.2155739781495732</v>
+        <v>0.2634685832182753</v>
       </c>
       <c r="T7">
-        <v>0.2155739781495732</v>
+        <v>0.2634685832182753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H8">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N8">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O8">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P8">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q8">
-        <v>415.6476381809034</v>
+        <v>104.548105646645</v>
       </c>
       <c r="R8">
-        <v>3740.828743628131</v>
+        <v>940.9329508198049</v>
       </c>
       <c r="S8">
-        <v>0.136345987911038</v>
+        <v>0.1106791568033413</v>
       </c>
       <c r="T8">
-        <v>0.136345987911038</v>
+        <v>0.1106791568033413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H9">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N9">
         <v>0.204412</v>
       </c>
       <c r="O9">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P9">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q9">
-        <v>4.590495501337778</v>
+        <v>2.607831855575555</v>
       </c>
       <c r="R9">
-        <v>41.31445951204</v>
+        <v>23.47048670018</v>
       </c>
       <c r="S9">
-        <v>0.001505832312365179</v>
+        <v>0.002760763851958495</v>
       </c>
       <c r="T9">
-        <v>0.001505832312365178</v>
+        <v>0.002760763851958496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H10">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N10">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q10">
-        <v>377.8652722516344</v>
+        <v>81.29369651597109</v>
       </c>
       <c r="R10">
-        <v>3400.78745026471</v>
+        <v>731.6432686437399</v>
       </c>
       <c r="S10">
-        <v>0.1239521390471586</v>
+        <v>0.08606103121776784</v>
       </c>
       <c r="T10">
-        <v>0.1239521390471586</v>
+        <v>0.08606103121776784</v>
       </c>
     </row>
   </sheetData>
